--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="22040" windowHeight="13720" activeTab="1"/>
+    <workbookView xWindow="1695" yWindow="0" windowWidth="22035" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Project</t>
   </si>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -769,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,24 +777,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -974,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -992,6 +992,26 @@
       </c>
       <c r="F10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1051,17 +1071,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1077,13 +1097,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1139,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1147,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -1192,12 +1212,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1205,42 +1225,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1263,47 +1283,47 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1326,9 +1346,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1339,7 +1359,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1370,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1381,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1414,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -1413,7 +1433,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1441,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1429,12 +1449,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="0" windowWidth="22035" windowHeight="13725"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="22040" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,20 +781,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -974,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1075,13 +1075,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1097,13 +1097,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -1212,12 +1212,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1225,42 +1225,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1283,47 +1283,47 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1346,9 +1346,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1449,12 +1449,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>44</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\timesheet\Spreadsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="22040" windowHeight="13720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -13,23 +18,23 @@
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>Project</t>
   </si>
@@ -173,6 +178,45 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Set up &amp; Instruction</t>
+  </si>
+  <si>
+    <t>Large Graphic Edit</t>
+  </si>
+  <si>
+    <t>Medium graphic creation</t>
+  </si>
+  <si>
+    <t>SAE 2015 BrainCloud video</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Annual Report</t>
+  </si>
+  <si>
+    <t>Tire Expo Booth</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Large graphic creation</t>
+  </si>
+  <si>
+    <t>Small Graphic Edit</t>
+  </si>
+  <si>
+    <t>Medium Graphic Edit</t>
+  </si>
+  <si>
+    <t>Photography</t>
   </si>
 </sst>
 </file>
@@ -769,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,24 +821,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -834,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -874,7 +918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -894,7 +938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -914,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -934,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -954,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -974,12 +1018,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -988,29 +1032,129 @@
         <v>2014</v>
       </c>
       <c r="E10" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>2014</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>2014</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>2014</v>
+      </c>
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>2014</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1036,12 +1180,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Sub-Tasks'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048575</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048575</xm:sqref>
@@ -1057,6 +1195,12 @@
             <xm:f>Variables!$C:$C</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048575</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Sub-Tasks'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048575</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1075,13 +1219,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1097,13 +1241,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1143,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1167,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1183,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -1206,18 +1350,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1225,44 +1369,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1277,55 +1446,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1346,9 +1555,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1568,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1579,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1590,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1601,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1623,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +1634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -1433,7 +1642,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -1441,7 +1650,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1449,12 +1658,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\timesheet\Spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Project</t>
   </si>
@@ -48,9 +43,6 @@
     <t>Person</t>
   </si>
   <si>
-    <t>CASR Web Site</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -217,6 +209,18 @@
   </si>
   <si>
     <t>Photography</t>
+  </si>
+  <si>
+    <t>UTC Web Site</t>
+  </si>
+  <si>
+    <t>AVS One-Pagers</t>
+  </si>
+  <si>
+    <t>VTTI Redesign</t>
+  </si>
+  <si>
+    <t>Employee Directory</t>
   </si>
 </sst>
 </file>
@@ -544,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048575" totalsRowShown="0">
-  <autoFilter ref="A1:F1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048573" totalsRowShown="0">
+  <autoFilter ref="A1:F1048573"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
@@ -813,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -821,11 +825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -860,13 +864,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>2014</v>
@@ -875,67 +879,67 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>2014</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>2014</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,30 +947,30 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>2014</v>
       </c>
       <c r="E6" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -980,122 +984,122 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>2014</v>
       </c>
       <c r="E10" s="5">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" s="5">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>2014</v>
       </c>
       <c r="E12" s="5">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" s="5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,36 +1107,36 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" s="5">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>2014</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1140,27 +1144,87 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16" s="5">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>2014</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>2014</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048575">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048573">
       <formula1>0.25</formula1>
       <formula2>16</formula2>
     </dataValidation>
@@ -1176,31 +1240,31 @@
           <x14:formula1>
             <xm:f>'Project List'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048575</xm:sqref>
+          <xm:sqref>A1:A1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048575</xm:sqref>
+          <xm:sqref>F2:F1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048575</xm:sqref>
+          <xm:sqref>C1:C1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048575</xm:sqref>
+          <xm:sqref>D1:D1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Sub-Tasks'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048575</xm:sqref>
+          <xm:sqref>B2:B1048573</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1227,10 +1291,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,26 +1302,26 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -1265,7 +1329,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
@@ -1273,7 +1337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -1281,7 +1345,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
@@ -1289,7 +1353,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1297,7 +1361,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1305,7 +1369,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1313,7 +1377,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1321,7 +1385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -1329,7 +1393,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4">
         <v>17</v>
@@ -1350,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,75 +1427,85 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1459,82 +1533,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1559,10 +1633,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1">
         <v>2014</v>
@@ -1570,10 +1644,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -1581,10 +1655,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -1592,10 +1666,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1603,10 +1677,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -1614,10 +1688,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1625,10 +1699,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -1636,7 +1710,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -1644,7 +1718,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1652,7 +1726,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1660,12 +1734,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>Project</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Employee Directory</t>
+  </si>
+  <si>
+    <t>VTTI Website</t>
+  </si>
+  <si>
+    <t>Dealing with Ensemble</t>
   </si>
 </sst>
 </file>
@@ -817,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,6 +1225,46 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>2014</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>2014</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1414,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,6 +1552,11 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,6 +1660,11 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\timesheet\Spreadsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710"/>
   </bookViews>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t>Project</t>
   </si>
@@ -227,6 +232,9 @@
   </si>
   <si>
     <t>Dealing with Ensemble</t>
+  </si>
+  <si>
+    <t>File Clean-up</t>
   </si>
 </sst>
 </file>
@@ -823,7 +831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1070,7 @@
         <v>2014</v>
       </c>
       <c r="E11" s="5">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1082,7 +1090,7 @@
         <v>2014</v>
       </c>
       <c r="E12" s="5">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1102,7 +1110,7 @@
         <v>2014</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1266,6 +1274,26 @@
       </c>
       <c r="F21" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>2014</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1571,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,6 +1693,11 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\timesheet\Spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710"/>
   </bookViews>
@@ -831,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1185,7 @@
         <v>2014</v>
       </c>
       <c r="E17" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1210,7 +1205,7 @@
         <v>2014</v>
       </c>
       <c r="E18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1230,7 +1225,7 @@
         <v>2014</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>Project</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>File Clean-up</t>
+  </si>
+  <si>
+    <t>Printing</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,11 +837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,6 +1292,26 @@
       </c>
       <c r="F22" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>2014</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1594,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,6 +1716,11 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="75">
   <si>
     <t>Project</t>
   </si>
@@ -169,9 +169,6 @@
     <t>(Multiple Items)</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Git Hub</t>
   </si>
   <si>
@@ -233,6 +230,30 @@
   </si>
   <si>
     <t>Printing</t>
+  </si>
+  <si>
+    <t>NSTSCE Video</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>File Transfer</t>
+  </si>
+  <si>
+    <t>Answering Questions</t>
+  </si>
+  <si>
+    <t>Demo Site</t>
+  </si>
+  <si>
+    <t>LCD Panels</t>
+  </si>
+  <si>
+    <t>Hardware</t>
   </si>
 </sst>
 </file>
@@ -285,7 +306,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -452,7 +485,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -543,10 +576,10 @@
     <dataField name="Sum of Hours" fld="4" baseField="0" baseItem="1566352" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -567,7 +600,7 @@
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
-    <tableColumn id="4" name="Hours" dataDxfId="2"/>
+    <tableColumn id="4" name="Hours" dataDxfId="6"/>
     <tableColumn id="5" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -829,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -837,11 +870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +1029,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -1019,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -1036,10 +1069,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1056,10 +1089,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -1076,10 +1109,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -1096,10 +1129,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1116,10 +1149,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -1136,7 +1169,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1156,7 +1189,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1168,7 +1201,7 @@
         <v>2014</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1188,7 +1221,7 @@
         <v>2014</v>
       </c>
       <c r="E17" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1196,7 +1229,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1216,7 +1249,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1228,7 +1261,7 @@
         <v>2014</v>
       </c>
       <c r="E19" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1236,11 +1269,11 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
@@ -1248,7 +1281,7 @@
         <v>2014</v>
       </c>
       <c r="E20" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1256,7 +1289,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1268,7 +1301,7 @@
         <v>2014</v>
       </c>
       <c r="E21" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1276,10 +1309,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1296,21 +1329,221 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>2014</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23">
-        <v>2014</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>2014</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>2014</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>2014</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>2014</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>2014</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>2014</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>2014</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>2014</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>2014</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1377,8 +1610,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,97 +1632,94 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
+      <c r="A9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
+      <c r="A10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
+      <c r="A12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
+      <c r="A13" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
+      <c r="A14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
-        <v>17</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16"/>
@@ -1506,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,12 +1757,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,42 +1797,52 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1617,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,57 +1910,87 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710"/>
+    <workbookView xWindow="-28220" yWindow="2200" windowWidth="23820" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,18 @@
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
   <si>
     <t>Project</t>
   </si>
@@ -306,19 +306,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -576,10 +564,10 @@
     <dataField name="Sum of Hours" fld="4" baseField="0" baseItem="1566352" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -600,7 +588,7 @@
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
-    <tableColumn id="4" name="Hours" dataDxfId="6"/>
+    <tableColumn id="4" name="Hours" dataDxfId="2"/>
     <tableColumn id="5" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -862,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,24 +858,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -927,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -947,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -967,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -987,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1047,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1087,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1107,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1127,7 +1115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1147,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1167,7 +1155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1187,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1207,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1247,7 +1235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1267,7 +1255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1287,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1307,7 +1295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1327,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1347,7 +1335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1367,7 +1355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1387,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1407,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1447,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1467,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1487,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1545,6 +1533,11 @@
       </c>
       <c r="F33" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1601,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1654,7 +1647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1670,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1678,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1686,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1702,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1710,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1718,10 +1711,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -1739,15 +1732,15 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1755,92 +1748,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1863,132 +1856,132 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2011,9 +2004,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2024,7 +2017,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2035,7 +2028,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2046,7 +2039,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2050,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2068,7 +2061,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2072,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2090,7 +2083,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -2098,7 +2091,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -2114,12 +2107,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>43</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28220" yWindow="2200" windowWidth="23820" windowHeight="14940"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
   <si>
     <t>Project</t>
   </si>
@@ -43,21 +43,12 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>CAAR Web Site</t>
   </si>
   <si>
     <t>NCST Conference</t>
   </si>
   <si>
-    <t>ITS World Congress</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -254,13 +245,172 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>Tire Expo Booth 2015</t>
+  </si>
+  <si>
+    <t>Motocycle Summit 2015</t>
+  </si>
+  <si>
+    <t>File/Folder Clean-up</t>
+  </si>
+  <si>
+    <t>Subtask</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>News Release</t>
+  </si>
+  <si>
+    <t>Writing Content</t>
+  </si>
+  <si>
+    <t>Editing Content</t>
+  </si>
+  <si>
+    <t>Blog Post</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>E-Newsletter</t>
+  </si>
+  <si>
+    <t>Media Tracking</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>Invoves writing for social media, news releases, for website, for blog posts, for conference and event materials</t>
+  </si>
+  <si>
+    <t>Communication Plan</t>
+  </si>
+  <si>
+    <t>Video Editing</t>
+  </si>
+  <si>
+    <t>Photo Editing</t>
+  </si>
+  <si>
+    <t>Head Shots</t>
+  </si>
+  <si>
+    <t>Marketing List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves filling out PAF and workign with fiscal team to get product/service from purchase to recieved stages </t>
+  </si>
+  <si>
+    <t>Involves examining researchers calendars</t>
+  </si>
+  <si>
+    <t>Coordinating Tours/Meetings/Events/Interviews</t>
+  </si>
+  <si>
+    <t>Media Contact</t>
+  </si>
+  <si>
+    <t>ICMPA9 2015</t>
+  </si>
+  <si>
+    <t>Creating Content</t>
+  </si>
+  <si>
+    <t>Involves creation of content by writing and may include some graphic manipulation,</t>
+  </si>
+  <si>
+    <t>MCOP Adaptive Lighting Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Development -Training </t>
+  </si>
+  <si>
+    <t>Updating Invitation List</t>
+  </si>
+  <si>
+    <t>Involves moifying or editing existing content such as news releases, web content, blog posts, and  graphic materials</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves vetting candidates for employement or internships. Can involve resume review, interviews, and any paperwor/training involved to support new team memeber. </t>
+  </si>
+  <si>
+    <t>Sharing Video/Graphics with Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves a variety of tasks associated with hiring new employees/interns/ supervisory tasks such as signing time sheets and conducting performance evaluations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves taking media calls/emails and answering questions. Can also invlve connecting member of the media with various researchers and setting up site visits. </t>
+  </si>
+  <si>
+    <t>Involves the coordination of the ICMPA9 conference being hosted in May 2015.</t>
+  </si>
+  <si>
+    <t>Involves the creation,editing and updating the UTC Website</t>
+  </si>
+  <si>
+    <t>Involves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Completed project</t>
+  </si>
+  <si>
+    <t>Involved the writting of the RFP for the NCST Conference - complete</t>
+  </si>
+  <si>
+    <t>Involves the content management and periodic update for the VTTI Intranet page.</t>
+  </si>
+  <si>
+    <t>Involves the event planing, graphic developments and logistical coordination for the SAE 2015 GIM meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the logistical coordination of </t>
+  </si>
+  <si>
+    <t>Reporting  - git hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the reporting of time spent on various projects and mantanace of sotware on personal computers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the creation, editing and approval process associated with the development delivery of the VTTI annual report. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the collaboration with the GCAPS team to execute graphics, videos, advertisements and content for the annual Tire Expo the team attends. </t>
+  </si>
+  <si>
+    <t>Involves the creation, editing and distribution of AVS One Pagers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the management and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the management, frequesnt updates and backups of the VTTI website. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves providing support to the AVS/NSTSCE Team for recording of videos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the coordination, graphics development and logistical </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,16 +418,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -285,11 +470,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -302,8 +507,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -472,7 +684,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -850,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -883,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -897,13 +1109,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>2014</v>
@@ -912,18 +1124,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2014</v>
@@ -932,18 +1144,18 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>2014</v>
@@ -952,18 +1164,18 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2014</v>
@@ -972,18 +1184,18 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2014</v>
@@ -992,18 +1204,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1012,18 +1224,18 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -1032,18 +1244,18 @@
         <v>1.25</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -1052,18 +1264,18 @@
         <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>2014</v>
@@ -1072,18 +1284,18 @@
         <v>1.75</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>2014</v>
@@ -1092,18 +1304,18 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>2014</v>
@@ -1112,18 +1324,18 @@
         <v>6.5</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -1132,18 +1344,18 @@
         <v>1.25</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -1152,18 +1364,18 @@
         <v>0.75</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2014</v>
@@ -1172,18 +1384,18 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>2014</v>
@@ -1192,18 +1404,18 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>2014</v>
@@ -1212,18 +1424,18 @@
         <v>4.5</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>2014</v>
@@ -1232,18 +1444,18 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>2014</v>
@@ -1252,18 +1464,18 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>2014</v>
@@ -1272,18 +1484,18 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>2014</v>
@@ -1292,18 +1504,18 @@
         <v>1.5</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>2014</v>
@@ -1312,18 +1524,18 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>2014</v>
@@ -1332,18 +1544,18 @@
         <v>3.5</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>2014</v>
@@ -1352,18 +1564,18 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>2014</v>
@@ -1372,18 +1584,18 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>2014</v>
@@ -1392,18 +1604,18 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>2014</v>
@@ -1412,18 +1624,18 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>2014</v>
@@ -1432,18 +1644,18 @@
         <v>1.5</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>2014</v>
@@ -1452,18 +1664,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>2014</v>
@@ -1472,18 +1684,18 @@
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>2014</v>
@@ -1492,18 +1704,18 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>2014</v>
@@ -1512,18 +1724,18 @@
         <v>0.5</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>2014</v>
@@ -1532,12 +1744,67 @@
         <v>0.5</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>2014</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>2014</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>2014</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1554,12 +1821,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Project List'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:A1048573</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
@@ -1584,6 +1845,12 @@
           </x14:formula1>
           <xm:sqref>B2:B1048573</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Project List'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048573</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1598,7 +1865,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1609,10 +1876,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1620,20 +1887,20 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>7</v>
@@ -1641,7 +1908,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -1649,7 +1916,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
@@ -1657,7 +1924,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -1665,7 +1932,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1673,7 +1940,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1681,7 +1948,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1689,7 +1956,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1697,7 +1964,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1705,7 +1972,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4">
         <v>17</v>
@@ -1729,117 +1996,235 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:3" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>54</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1850,140 +2235,222 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>74</v>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2001,17 +2468,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1">
         <v>2014</v>
@@ -2019,10 +2486,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -2030,10 +2497,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -2041,10 +2508,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -2052,10 +2519,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -2063,21 +2530,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -2085,7 +2549,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2093,7 +2557,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2101,7 +2565,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2109,12 +2573,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tomahawk.vtti.vt.edu\users\Fac_Staff\rhall\private\Desktop\Spreadsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20560" activeTab="2"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20565"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,21 +20,21 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
   <si>
     <t>Project</t>
   </si>
@@ -684,7 +689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1062,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,24 +1075,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1307,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1347,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1407,7 +1412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1467,7 +1472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1487,7 +1492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1507,7 +1512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1667,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1767,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1805,6 +1810,14 @@
       </c>
       <c r="F36" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +1881,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1898,7 +1911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1970,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1978,10 +1991,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -1998,18 +2011,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickTop="1" thickBot="1">
+    <row r="1" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2036,7 +2049,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>112</v>
       </c>
@@ -2044,12 +2057,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2065,7 +2078,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2073,7 +2086,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2081,12 +2094,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2094,7 +2107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2102,7 +2115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2119,7 +2132,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2127,7 +2140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2135,12 +2148,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2148,52 +2161,52 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2201,7 +2214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -2209,12 +2222,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2241,13 +2254,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2255,132 +2268,132 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2404,7 +2417,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2420,27 +2433,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2471,9 +2484,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2497,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2508,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2519,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2528,7 +2541,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2552,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -2555,7 +2568,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -2563,7 +2576,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -2571,12 +2584,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>40</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tomahawk.vtti.vt.edu\users\Fac_Staff\rhall\private\Desktop\Spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20565"/>
+    <workbookView xWindow="-31640" yWindow="0" windowWidth="28800" windowHeight="17560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -23,18 +18,18 @@
     <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="126">
   <si>
     <t>Project</t>
   </si>
@@ -408,7 +403,10 @@
     <t xml:space="preserve">Involves providing support to the AVS/NSTSCE Team for recording of videos. </t>
   </si>
   <si>
-    <t xml:space="preserve">Involves the coordination, graphics development and logistical </t>
+    <t xml:space="preserve">Involves the collaboration with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the collaboration with the MRG, graphics development and any other neccesary tasks to complete the Mototcycle summit gathering. </t>
   </si>
 </sst>
 </file>
@@ -526,13 +524,13 @@
   <dxfs count="3">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,10 +779,10 @@
     <dataField name="Sum of Hours" fld="4" baseField="0" baseItem="1566352" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -798,14 +796,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048573" totalsRowShown="0">
-  <autoFilter ref="A1:F1048573"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048572" totalsRowShown="0">
+  <autoFilter ref="A1:F1048572"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
-    <tableColumn id="4" name="Hours" dataDxfId="2"/>
+    <tableColumn id="4" name="Hours" dataDxfId="0"/>
     <tableColumn id="5" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1067,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,24 +1073,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1732,7 +1730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1792,7 +1790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1812,17 +1810,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048573">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048572">
       <formula1>0.25</formula1>
       <formula2>16</formula2>
     </dataValidation>
@@ -1838,31 +1828,31 @@
           <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048573</xm:sqref>
+          <xm:sqref>F2:F1048572</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048573</xm:sqref>
+          <xm:sqref>C1:C1048572</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048573</xm:sqref>
+          <xm:sqref>D1:D1048572</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Sub-Tasks'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048573</xm:sqref>
+          <xm:sqref>B2:B1048572</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Project List'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048573</xm:sqref>
+          <xm:sqref>A1:A1048572</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1881,13 +1871,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1919,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1951,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1967,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1983,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1991,10 +1981,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -2012,17 +2002,17 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17" thickTop="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2023,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2041,7 +2031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2049,7 +2039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>112</v>
       </c>
@@ -2057,12 +2047,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2078,7 +2068,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2086,7 +2076,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2094,12 +2084,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2097,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2115,7 +2105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2123,7 +2113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2132,7 +2122,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2140,7 +2130,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2148,65 +2138,68 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2214,7 +2207,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -2222,12 +2215,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2254,13 +2247,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2268,132 +2261,132 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2401,7 +2394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2409,7 +2402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2417,7 +2410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2425,7 +2418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2433,27 +2426,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2461,7 +2454,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2478,15 +2471,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2496,8 +2489,11 @@
       <c r="C1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2504,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2541,7 +2537,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -2584,12 +2580,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>40</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31640" yWindow="0" windowWidth="28800" windowHeight="17560" activeTab="4"/>
+    <workbookView xWindow="-31640" yWindow="0" windowWidth="28800" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="148">
   <si>
     <t>Project</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Greg</t>
   </si>
   <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>At Event</t>
-  </si>
-  <si>
     <t>Filming</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Conference Planning</t>
   </si>
   <si>
-    <t>Graphics Design</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>Set up &amp; Instruction</t>
   </si>
   <si>
-    <t>Large Graphic Edit</t>
-  </si>
-  <si>
     <t>Medium graphic creation</t>
   </si>
   <si>
@@ -190,12 +178,6 @@
     <t>Large graphic creation</t>
   </si>
   <si>
-    <t>Small Graphic Edit</t>
-  </si>
-  <si>
-    <t>Medium Graphic Edit</t>
-  </si>
-  <si>
     <t>Photography</t>
   </si>
   <si>
@@ -214,12 +196,6 @@
     <t>VTTI Website</t>
   </si>
   <si>
-    <t>Dealing with Ensemble</t>
-  </si>
-  <si>
-    <t>File Clean-up</t>
-  </si>
-  <si>
     <t>Printing</t>
   </si>
   <si>
@@ -232,12 +208,6 @@
     <t>Training</t>
   </si>
   <si>
-    <t>File Transfer</t>
-  </si>
-  <si>
-    <t>Answering Questions</t>
-  </si>
-  <si>
     <t>Demo Site</t>
   </si>
   <si>
@@ -253,9 +223,6 @@
     <t>Motocycle Summit 2015</t>
   </si>
   <si>
-    <t>File/Folder Clean-up</t>
-  </si>
-  <si>
     <t>Subtask</t>
   </si>
   <si>
@@ -265,12 +232,6 @@
     <t>News Release</t>
   </si>
   <si>
-    <t>Writing Content</t>
-  </si>
-  <si>
-    <t>Editing Content</t>
-  </si>
-  <si>
     <t>Blog Post</t>
   </si>
   <si>
@@ -286,9 +247,6 @@
     <t>Ordering</t>
   </si>
   <si>
-    <t>Invoves writing for social media, news releases, for website, for blog posts, for conference and event materials</t>
-  </si>
-  <si>
     <t>Communication Plan</t>
   </si>
   <si>
@@ -304,24 +262,12 @@
     <t>Marketing List</t>
   </si>
   <si>
-    <t xml:space="preserve">Involves filling out PAF and workign with fiscal team to get product/service from purchase to recieved stages </t>
-  </si>
-  <si>
-    <t>Involves examining researchers calendars</t>
-  </si>
-  <si>
-    <t>Coordinating Tours/Meetings/Events/Interviews</t>
-  </si>
-  <si>
     <t>Media Contact</t>
   </si>
   <si>
     <t>ICMPA9 2015</t>
   </si>
   <si>
-    <t>Creating Content</t>
-  </si>
-  <si>
     <t>Involves creation of content by writing and may include some graphic manipulation,</t>
   </si>
   <si>
@@ -334,57 +280,27 @@
     <t>Updating Invitation List</t>
   </si>
   <si>
-    <t>Involves moifying or editing existing content such as news releases, web content, blog posts, and  graphic materials</t>
-  </si>
-  <si>
     <t>Human Resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Involves vetting candidates for employement or internships. Can involve resume review, interviews, and any paperwor/training involved to support new team memeber. </t>
-  </si>
-  <si>
-    <t>Sharing Video/Graphics with Media</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiring </t>
   </si>
   <si>
     <t xml:space="preserve">Involves a variety of tasks associated with hiring new employees/interns/ supervisory tasks such as signing time sheets and conducting performance evaluations. </t>
   </si>
   <si>
-    <t xml:space="preserve">Involves taking media calls/emails and answering questions. Can also invlve connecting member of the media with various researchers and setting up site visits. </t>
-  </si>
-  <si>
     <t>Involves the coordination of the ICMPA9 conference being hosted in May 2015.</t>
   </si>
   <si>
-    <t>Involves the creation,editing and updating the UTC Website</t>
-  </si>
-  <si>
-    <t>Involves</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Completed project</t>
   </si>
   <si>
-    <t>Involved the writting of the RFP for the NCST Conference - complete</t>
-  </si>
-  <si>
     <t>Involves the content management and periodic update for the VTTI Intranet page.</t>
   </si>
   <si>
-    <t>Involves the event planing, graphic developments and logistical coordination for the SAE 2015 GIM meeting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Involves the logistical coordination of </t>
   </si>
   <si>
-    <t>Reporting  - git hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involves the reporting of time spent on various projects and mantanace of sotware on personal computers. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Involves the creation, editing and approval process associated with the development delivery of the VTTI annual report. </t>
   </si>
   <si>
@@ -394,19 +310,169 @@
     <t>Involves the creation, editing and distribution of AVS One Pagers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Involves the management and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involves the management, frequesnt updates and backups of the VTTI website. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Involves providing support to the AVS/NSTSCE Team for recording of videos. </t>
   </si>
   <si>
-    <t xml:space="preserve">Involves the collaboration with </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involves the collaboration with the MRG, graphics development and any other neccesary tasks to complete the Mototcycle summit gathering. </t>
+    <t>Involves collaboration with CIBSS for a FHWA funded project to promote the new adaptive lighting database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves signing up and attending professional development activities. </t>
+  </si>
+  <si>
+    <t>Involves working with NSTSCE SMEs to execute the biennial conference</t>
+  </si>
+  <si>
+    <t>Involves the event planning, graphic developments and logistical coordination for the SAE 2015 GIM meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the reporting of time spent on various projects and maintenance of software on personal computers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the management, frequent updates and backups of the VTTI website. </t>
+  </si>
+  <si>
+    <t>Motorcycle Summit 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves the collaboration with the MRG and  any graphics development/editing and logistical coordination necessary to complete the Motorcycle summit gathering. </t>
+  </si>
+  <si>
+    <t>Involves seeking story, writing, editing and putting the news release into the cms.</t>
+  </si>
+  <si>
+    <t>Involves seeking story, writing, editing and posting the into wordpress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves creating strategy, writing posts, and publishing posts onto various social media channels. </t>
+  </si>
+  <si>
+    <t>Involves media tracking, writing, editing and generating HTML email associated with @vttinews e-newsletter. (Focuses on media highlights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves using online search databases to discover any mention of VTTI or VTTI researchers online, in newspapers, in magazines, etc.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves updating the PRMO team strategy and allows for a self-team assessment annually (Usually in summer). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves taking pictures of new employees and new images of employee headshot over 7 years old. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves updating marketing lists through TOM/Jon and Center director recommendations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves taking media calls/emails and answering questions. Can also involve connecting member of the media with various researchers and setting up site visits. </t>
+  </si>
+  <si>
+    <t>Involves the creation, editing and updating of the UTC Website</t>
+  </si>
+  <si>
+    <t>Involves logistical coordination, meetings, ordering items, maintaining invite lists, answering questions, accepting RSVPs, Putting together agendas, writing , creating and Implementing promotional strategy associated with conference, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves updating website, employee directories, </t>
+  </si>
+  <si>
+    <t>Reporting  - Git Hub</t>
+  </si>
+  <si>
+    <t>Involved the writing of the RFP for the NCST Conference - dissolved December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves printing of various graphic materials </t>
+  </si>
+  <si>
+    <t>Conference planning</t>
+  </si>
+  <si>
+    <t>At event</t>
+  </si>
+  <si>
+    <t>RFP submission</t>
+  </si>
+  <si>
+    <t>Graphics design</t>
+  </si>
+  <si>
+    <t>Small graphic edit</t>
+  </si>
+  <si>
+    <t>Medium graphic edit</t>
+  </si>
+  <si>
+    <t>Large graphic edit</t>
+  </si>
+  <si>
+    <t>Dealing with ensemble</t>
+  </si>
+  <si>
+    <t>File/Folder clean-up</t>
+  </si>
+  <si>
+    <t>File transfer</t>
+  </si>
+  <si>
+    <t>Answering questions</t>
+  </si>
+  <si>
+    <t>Creating content</t>
+  </si>
+  <si>
+    <t>Writing content</t>
+  </si>
+  <si>
+    <t>Editing content</t>
+  </si>
+  <si>
+    <t>Coordination</t>
+  </si>
+  <si>
+    <t>Involves manipulating a photo to improve the look. Is provided upon request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves signing up and attending various trainings either mandatory or for professional development. </t>
+  </si>
+  <si>
+    <t>Set up &amp; instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves being on site at event location supervising logistics and posting to social media if appropriate for event. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves creating, editing, emailing, printing and delivering of various event/conference invitations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves live filming and prep time for recording videos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves assisting center directors/group leaders in RFP delivery to win event or conference bid. </t>
+  </si>
+  <si>
+    <t>File/Folder cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves transferring of data from camera to VTTI server or from VTTI server to a media contact/YouTube etc.  </t>
+  </si>
+  <si>
+    <t>Involves writing for social media, news releases, for website, for blog posts, for conference and event materials</t>
+  </si>
+  <si>
+    <t>Involves modifying or editing existing content such as news releases, web content, blog posts, and  graphic materials</t>
+  </si>
+  <si>
+    <t>Involve  coordination for Tours/Meetings/Events/Interviews/Demos Involves examining researchers calendars, sending emails, submitting necessary forms and answering phone calls to setup activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves using final cut pro, after effects  or adobe premier to edit and deliver video requests. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves updating, adding and subtracting contact names from various event invitation lists as well as the VTTI Master list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves vetting candidates for employment or internships. Can involve resume review, interviews, and any paperwork/training involved to support new team member. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves filling out PAF and working with fiscal team to get product/service from purchase to received stages </t>
   </si>
 </sst>
 </file>
@@ -446,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,12 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,15 +549,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -511,14 +573,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -796,8 +859,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048572" totalsRowShown="0">
-  <autoFilter ref="A1:F1048572"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048571" totalsRowShown="0">
+  <autoFilter ref="A1:F1048571"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
@@ -1073,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1098,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1115,10 +1178,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>2014</v>
@@ -1132,19 +1195,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1152,33 +1215,33 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>2014</v>
       </c>
       <c r="E4" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>2014</v>
@@ -1187,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1195,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>2014</v>
@@ -1207,24 +1270,24 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1232,19 +1295,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8" s="5">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1252,19 +1315,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" s="5">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1272,19 +1335,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>2014</v>
       </c>
       <c r="E10" s="5">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1292,19 +1355,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1312,19 +1375,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>2014</v>
       </c>
       <c r="E12" s="5">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1332,19 +1395,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" s="5">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1352,33 +1415,33 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" s="5">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>2014</v>
@@ -1392,19 +1455,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1412,19 +1475,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>2014</v>
       </c>
       <c r="E17" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1432,19 +1495,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>2014</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1452,19 +1515,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>2014</v>
       </c>
       <c r="E19" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1472,19 +1535,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>2014</v>
       </c>
       <c r="E20" s="5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1492,59 +1555,59 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>2014</v>
       </c>
       <c r="E21" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>2014</v>
       </c>
       <c r="E23" s="5">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1552,13 +1615,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>2014</v>
@@ -1567,44 +1630,44 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>2014</v>
       </c>
       <c r="E25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>2014</v>
       </c>
       <c r="E26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1612,19 +1675,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1632,19 +1695,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>2014</v>
       </c>
       <c r="E28" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1652,19 +1715,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>2014</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1672,19 +1735,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" s="5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1692,19 +1755,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" s="5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1712,13 +1775,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>2014</v>
@@ -1732,39 +1795,39 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>2014</v>
       </c>
       <c r="E33" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>2014</v>
       </c>
       <c r="E34" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1772,47 +1835,27 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>2014</v>
       </c>
       <c r="E35" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>2014</v>
-      </c>
-      <c r="E36" s="5">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048572">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048571">
       <formula1>0.25</formula1>
       <formula2>16</formula2>
     </dataValidation>
@@ -1828,31 +1871,31 @@
           <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048572</xm:sqref>
+          <xm:sqref>F2:F1048571</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048572</xm:sqref>
+          <xm:sqref>C1:C1048571</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048572</xm:sqref>
+          <xm:sqref>D1:D1048571</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Project List'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048571</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Sub-Tasks'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048572</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Project List'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:A1048572</xm:sqref>
+          <xm:sqref>B2:B1048571</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1867,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1879,10 +1922,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1890,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1898,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1911,7 +1954,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -1927,7 +1970,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -1935,7 +1978,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1943,7 +1986,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1951,7 +1994,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1959,7 +2002,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1967,7 +2010,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -2002,7 +2045,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2017,215 +2060,238 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2241,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2255,208 +2321,239 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2471,51 +2568,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1">
         <v>2014</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2526,68 +2620,68 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31640" yWindow="0" windowWidth="28800" windowHeight="17560"/>
+    <workbookView xWindow="-31540" yWindow="0" windowWidth="28800" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
   <si>
     <t>Project</t>
   </si>
@@ -250,12 +250,6 @@
     <t>Communication Plan</t>
   </si>
   <si>
-    <t>Video Editing</t>
-  </si>
-  <si>
-    <t>Photo Editing</t>
-  </si>
-  <si>
     <t>Head Shots</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>Dealing with ensemble</t>
   </si>
   <si>
-    <t>File/Folder clean-up</t>
-  </si>
-  <si>
     <t>File transfer</t>
   </si>
   <si>
@@ -460,9 +451,6 @@
     <t>Involves modifying or editing existing content such as news releases, web content, blog posts, and  graphic materials</t>
   </si>
   <si>
-    <t>Involve  coordination for Tours/Meetings/Events/Interviews/Demos Involves examining researchers calendars, sending emails, submitting necessary forms and answering phone calls to setup activity.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Involves using final cut pro, after effects  or adobe premier to edit and deliver video requests. </t>
   </si>
   <si>
@@ -473,6 +461,21 @@
   </si>
   <si>
     <t xml:space="preserve">Involves filling out PAF and working with fiscal team to get product/service from purchase to received stages </t>
+  </si>
+  <si>
+    <t>Video editing</t>
+  </si>
+  <si>
+    <t>Photo editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRMO Team focused meetings, brainstorming, management, collaborations. </t>
+  </si>
+  <si>
+    <t>Team Activity</t>
+  </si>
+  <si>
+    <t>Involves attendance  and coordination for Tours/Meetings/Events/Interviews/Demos. May involve attending meetings, examining researchers calendars, sending emails, submitting necessary forms and answering phone calls to setup activity.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -559,7 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -573,6 +582,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -859,8 +869,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048571" totalsRowShown="0">
-  <autoFilter ref="A1:F1048571"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048573" totalsRowShown="0">
+  <autoFilter ref="A1:F1048573"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
@@ -1136,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1178,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1198,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1218,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1238,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1258,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1298,7 +1308,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1378,7 +1388,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1518,7 +1528,7 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -1558,7 +1568,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1698,7 +1708,7 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -1715,10 +1725,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -1795,10 +1805,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -1807,7 +1817,7 @@
         <v>2014</v>
       </c>
       <c r="E33" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1818,7 +1828,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1827,7 +1837,7 @@
         <v>2014</v>
       </c>
       <c r="E34" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1835,10 +1845,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1847,15 +1857,215 @@
         <v>2014</v>
       </c>
       <c r="E35" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>2014</v>
+      </c>
+      <c r="E36" s="5">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>2014</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>2014</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>2014</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>2014</v>
+      </c>
+      <c r="E41" s="5">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>2014</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>2014</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>2014</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>2014</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048571">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048573">
       <formula1>0.25</formula1>
       <formula2>16</formula2>
     </dataValidation>
@@ -1871,31 +2081,31 @@
           <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048571</xm:sqref>
+          <xm:sqref>F2:F1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048571</xm:sqref>
+          <xm:sqref>C1:C1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048571</xm:sqref>
+          <xm:sqref>D1:D1048573</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Sub-Tasks'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Project List'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048571</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Sub-Tasks'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048571</xm:sqref>
+          <xm:sqref>A1:A1048573</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2042,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2063,7 +2273,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1">
@@ -2071,7 +2281,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2084,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2092,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2100,7 +2310,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2108,15 +2318,15 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2129,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2137,7 +2347,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2145,7 +2355,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2158,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2166,7 +2376,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2176,18 +2386,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2195,7 +2405,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2203,7 +2413,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2211,7 +2421,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2219,7 +2429,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2227,7 +2437,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2235,62 +2445,70 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
       <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2310,7 +2528,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2329,18 +2547,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2348,7 +2566,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2356,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2364,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2374,35 +2592,35 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2427,12 +2645,12 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2440,11 +2658,11 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2455,15 +2673,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>127</v>
+      <c r="A24" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2478,26 +2696,26 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2505,39 +2723,39 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2545,15 +2763,15 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="149">
   <si>
     <t>Project</t>
   </si>
@@ -597,13 +597,13 @@
   <dxfs count="3">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,7 +760,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -852,10 +852,10 @@
     <dataField name="Sum of Hours" fld="4" baseField="0" baseItem="1566352" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -876,7 +876,7 @@
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
-    <tableColumn id="4" name="Hours" dataDxfId="0"/>
+    <tableColumn id="4" name="Hours" dataDxfId="2"/>
     <tableColumn id="5" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1138,7 +1138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1146,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2060,6 +2060,26 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>2014</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2120,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31540" yWindow="0" windowWidth="28800" windowHeight="17560"/>
+    <workbookView xWindow="-31540" yWindow="0" windowWidth="28800" windowHeight="17560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
   <si>
     <t>Project</t>
   </si>
@@ -515,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -568,7 +562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -582,7 +576,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -760,7 +753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1138,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1148,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -2117,15 +2110,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>'Project List'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048573</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>'Sub-Tasks'!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048573</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Project List'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:A1048573</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2275,7 +2268,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2545,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2682,115 +2675,110 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>124</v>
+      <c r="A24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\GitHub\timesheet\Spreadsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31540" yWindow="0" windowWidth="28800" windowHeight="17560" activeTab="3"/>
+    <workbookView xWindow="-31545" yWindow="0" windowWidth="28800" windowHeight="17565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,21 +20,21 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="165">
   <si>
     <t>Project</t>
   </si>
@@ -418,9 +423,6 @@
     <t>Coordination</t>
   </si>
   <si>
-    <t>Involves manipulating a photo to improve the look. Is provided upon request.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Involves signing up and attending various trainings either mandatory or for professional development. </t>
   </si>
   <si>
@@ -433,9 +435,6 @@
     <t xml:space="preserve">Involves creating, editing, emailing, printing and delivering of various event/conference invitations. </t>
   </si>
   <si>
-    <t xml:space="preserve">Involves live filming and prep time for recording videos. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Involves assisting center directors/group leaders in RFP delivery to win event or conference bid. </t>
   </si>
   <si>
@@ -463,12 +462,6 @@
     <t xml:space="preserve">Involves filling out PAF and working with fiscal team to get product/service from purchase to received stages </t>
   </si>
   <si>
-    <t>Video editing</t>
-  </si>
-  <si>
-    <t>Photo editing</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRMO Team focused meetings, brainstorming, management, collaborations. </t>
   </si>
   <si>
@@ -476,6 +469,66 @@
   </si>
   <si>
     <t>Involves attendance  and coordination for Tours/Meetings/Events/Interviews/Demos. May involve attending meetings, examining researchers calendars, sending emails, submitting necessary forms and answering phone calls to setup activity.</t>
+  </si>
+  <si>
+    <t>Involves editing, revising, incorporating feedback into a small scale/size graphic</t>
+  </si>
+  <si>
+    <t>Involves editing, revising, incorporating feedback into a moderate scale/size graphic</t>
+  </si>
+  <si>
+    <t>Involves editing, revising, incorporating feedback into a large scale/size graphic</t>
+  </si>
+  <si>
+    <t>Small graphic creation</t>
+  </si>
+  <si>
+    <t>Involves researching/gathering information, ideation and production of a small scale/size graphic</t>
+  </si>
+  <si>
+    <t>Involves researching/gathering information, ideation and production of a moderate scale/size graphic</t>
+  </si>
+  <si>
+    <t>Involves researching/gathering information, ideation and production of a large scale/size graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involves actually setting graphic components into motion and cultivating weight, feel and timing </t>
+  </si>
+  <si>
+    <t>Photography - Preproduction</t>
+  </si>
+  <si>
+    <t>Involves planning the photoshoot: gathering necessary materials and personnel.</t>
+  </si>
+  <si>
+    <t>Photography - Production</t>
+  </si>
+  <si>
+    <t>Involves executing the photoshoot</t>
+  </si>
+  <si>
+    <t>Photography - Postproduction</t>
+  </si>
+  <si>
+    <t>Involves file upload, color correction, exposure balancing, general digital touch-ups</t>
+  </si>
+  <si>
+    <t>Involves cleaning up files and reorganizing the workspace</t>
+  </si>
+  <si>
+    <t>Video - Preproduction</t>
+  </si>
+  <si>
+    <t>Involves planning principal photography, scheduling, gathering materials and storyboarding</t>
+  </si>
+  <si>
+    <t>Video - Production</t>
+  </si>
+  <si>
+    <t>Involves executing principal photography and audio</t>
+  </si>
+  <si>
+    <t>Video - Postproduction</t>
   </si>
 </sst>
 </file>
@@ -515,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,7 +621,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -576,6 +635,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -753,7 +813,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1131,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1146,17 +1206,17 @@
       <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1236,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1276,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1296,7 +1356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1336,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1356,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1416,7 +1476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1436,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1456,7 +1516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1496,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1516,7 +1576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1536,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1556,12 +1616,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1576,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1596,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1616,7 +1676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1636,7 +1696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1656,7 +1716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1696,7 +1756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1716,12 +1776,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -1736,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1776,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1796,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1816,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1836,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -1856,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1876,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1896,9 +1956,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>128</v>
@@ -1916,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1936,7 +1996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1956,7 +2016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2016,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -2036,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2056,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -2137,13 +2197,13 @@
       <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2151,7 +2211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2159,7 +2219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2183,7 +2243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2199,7 +2259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2207,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2239,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2247,10 +2307,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -2271,14 +2331,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickTop="1" thickBot="1">
+    <row r="1" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2297,12 +2357,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2310,7 +2370,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2334,7 +2394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -2342,12 +2402,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2355,7 +2415,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2363,7 +2423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2371,12 +2431,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2384,7 +2444,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2392,12 +2452,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2405,7 +2465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2413,7 +2473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +2481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2429,7 +2489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2437,7 +2497,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2445,7 +2505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2461,7 +2521,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2469,7 +2529,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2477,7 +2537,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2485,7 +2545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2493,7 +2553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2501,7 +2561,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2509,15 +2569,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -2538,19 +2598,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2558,7 +2618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2566,220 +2626,273 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2800,9 +2913,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2813,7 +2926,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2824,7 +2937,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2835,7 +2948,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2846,7 +2959,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2857,7 +2970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2868,7 +2981,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -2876,7 +2989,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -2884,7 +2997,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -2892,7 +3005,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -2900,12 +3013,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31540" yWindow="0" windowWidth="28800" windowHeight="17560" activeTab="3"/>
+    <workbookView xWindow="-31540" yWindow="0" windowWidth="28800" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="149">
   <si>
     <t>Project</t>
   </si>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1131,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2073,6 +2073,26 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>2014</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2540,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\GitHub\timesheet\Spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31545" yWindow="0" windowWidth="28800" windowHeight="17565" activeTab="3"/>
+    <workbookView xWindow="-31545" yWindow="0" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="171">
   <si>
     <t>Project</t>
   </si>
@@ -529,6 +524,24 @@
   </si>
   <si>
     <t>Video - Postproduction</t>
+  </si>
+  <si>
+    <t>Communication regarding the task at hand</t>
+  </si>
+  <si>
+    <t>Answering general questions not related to any projects</t>
+  </si>
+  <si>
+    <t>Making sure the TRB demo site is live, functioning and accessible to those who need it</t>
+  </si>
+  <si>
+    <t>Maintaining the hardware (mostly the computers for LCD panels), making sure they're updating and not displaying errors</t>
+  </si>
+  <si>
+    <t>University required training</t>
+  </si>
+  <si>
+    <t>Going through the motions of getting Ensemble to do what I need it to do for various projects</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1199,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -1550,7 +1563,7 @@
         <v>2014</v>
       </c>
       <c r="E17" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1570,7 +1583,7 @@
         <v>2014</v>
       </c>
       <c r="E18" s="5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1610,7 +1623,7 @@
         <v>2014</v>
       </c>
       <c r="E20" s="5">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2134,6 +2147,46 @@
       </c>
       <c r="F46" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>2014</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>2014</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2600,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,6 +2810,9 @@
       <c r="A20" t="s">
         <v>122</v>
       </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2778,11 +2834,17 @@
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2796,15 +2858,24 @@
       <c r="A26" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31545" yWindow="0" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="180">
   <si>
     <t>Project</t>
   </si>
@@ -526,9 +531,42 @@
     <t>Video - Postproduction</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TRB 2015 Tri-fold Pamphlet</t>
+  </si>
+  <si>
+    <t>CAAR Impact Video</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>Human Factors Connected Vehicles</t>
+  </si>
+  <si>
+    <t>Sharing the Road Website</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>For Scott Tidwell</t>
+  </si>
+  <si>
+    <t>For LaTanya</t>
+  </si>
+  <si>
+    <t>Going through the motions of getting Ensemble to do what I need it to do for various projects</t>
+  </si>
+  <si>
     <t>Communication regarding the task at hand</t>
   </si>
   <si>
+    <t>University required training</t>
+  </si>
+  <si>
     <t>Answering general questions not related to any projects</t>
   </si>
   <si>
@@ -536,19 +574,13 @@
   </si>
   <si>
     <t>Maintaining the hardware (mostly the computers for LCD panels), making sure they're updating and not displaying errors</t>
-  </si>
-  <si>
-    <t>University required training</t>
-  </si>
-  <si>
-    <t>Going through the motions of getting Ensemble to do what I need it to do for various projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +608,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -634,7 +674,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -649,6 +689,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -826,7 +867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -935,15 +976,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048573" totalsRowShown="0">
-  <autoFilter ref="A1:F1048573"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G1048573" totalsRowShown="0">
+  <autoFilter ref="A1:G1048573"/>
+  <sortState ref="A2:F50">
+    <sortCondition ref="F1:F1048573"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
     <tableColumn id="4" name="Hours" dataDxfId="2"/>
     <tableColumn id="5" name="Person"/>
+    <tableColumn id="3" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1204,7 +1249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1212,11 +1257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1274,7 @@
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,233 +1293,236 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>2014</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>2014</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>2014</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>2014</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>2014</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>2014</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>2014</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>2014</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>2014</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>2014</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>2014</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>2014</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>2014</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>2014</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.25</v>
-      </c>
       <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1483,38 +1531,38 @@
         <v>2014</v>
       </c>
       <c r="E13" s="5">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1523,27 +1571,27 @@
         <v>2014</v>
       </c>
       <c r="E15" s="5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1551,19 +1599,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>2014</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1571,10 +1619,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -1583,7 +1631,7 @@
         <v>2014</v>
       </c>
       <c r="E18" s="5">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1591,50 +1639,50 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>2014</v>
       </c>
       <c r="E19" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>2014</v>
       </c>
       <c r="E20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1643,18 +1691,18 @@
         <v>2014</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1663,18 +1711,18 @@
         <v>2014</v>
       </c>
       <c r="E22" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1683,18 +1731,18 @@
         <v>2014</v>
       </c>
       <c r="E23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1703,18 +1751,18 @@
         <v>2014</v>
       </c>
       <c r="E24" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1726,15 +1774,15 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -1743,18 +1791,18 @@
         <v>2014</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1763,18 +1811,18 @@
         <v>2014</v>
       </c>
       <c r="E27" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -1786,15 +1834,15 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -1803,10 +1851,10 @@
         <v>2014</v>
       </c>
       <c r="E29" s="5">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,47 +1862,47 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -1863,10 +1911,10 @@
         <v>2014</v>
       </c>
       <c r="E32" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,7 +1922,7 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -1883,7 +1931,7 @@
         <v>2014</v>
       </c>
       <c r="E33" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1891,10 +1939,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1903,7 +1951,7 @@
         <v>2014</v>
       </c>
       <c r="E34" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1911,30 +1959,30 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>2014</v>
       </c>
       <c r="E35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1943,18 +1991,18 @@
         <v>2014</v>
       </c>
       <c r="E36" s="5">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1963,18 +2011,18 @@
         <v>2014</v>
       </c>
       <c r="E37" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1983,18 +2031,18 @@
         <v>2014</v>
       </c>
       <c r="E38" s="5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -2003,18 +2051,18 @@
         <v>2014</v>
       </c>
       <c r="E39" s="5">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -2023,18 +2071,18 @@
         <v>2014</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -2043,18 +2091,18 @@
         <v>2014</v>
       </c>
       <c r="E41" s="5">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -2063,18 +2111,18 @@
         <v>2014</v>
       </c>
       <c r="E42" s="5">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -2083,18 +2131,18 @@
         <v>2014</v>
       </c>
       <c r="E43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -2106,15 +2154,15 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -2123,18 +2171,18 @@
         <v>2014</v>
       </c>
       <c r="E45" s="5">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -2143,18 +2191,18 @@
         <v>2014</v>
       </c>
       <c r="E46" s="5">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -2163,29 +2211,344 @@
         <v>2014</v>
       </c>
       <c r="E47" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>2014</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>2014</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>2014</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>2014</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>2014</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>2014</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>2014</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>2014</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56">
+        <v>2014</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>2014</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58">
+        <v>2014</v>
+      </c>
+      <c r="E58" s="5">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59">
+        <v>2014</v>
+      </c>
+      <c r="E59" s="5">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>2014</v>
+      </c>
+      <c r="E60" s="5">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>2014</v>
+      </c>
+      <c r="E61" s="5">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48">
-        <v>2014</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62">
+        <v>2014</v>
+      </c>
+      <c r="E62" s="5">
         <v>0.5</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>2014</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2378,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A33" sqref="A33:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,6 +2999,34 @@
       </c>
       <c r="C32" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2651,10 +3042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +3202,7 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2835,7 +3226,7 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2843,7 +3234,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,7 +3250,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2867,7 +3258,7 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +3266,7 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,8 +3357,12 @@
         <v>138</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
   <si>
     <t>Project</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>Maintaining the hardware (mostly the computers for LCD panels), making sure they're updating and not displaying errors</t>
+  </si>
+  <si>
+    <t>HFCV Validations</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1261,7 +1264,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
         <v>148</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
         <v>148</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
         <v>148</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
         <v>148</v>
@@ -2744,7 +2747,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A37"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -18,9 +18,9 @@
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
   <si>
     <t>Project</t>
   </si>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1075,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,14 +1810,6 @@
       </c>
       <c r="F36" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20565"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
   <si>
     <t>Project</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Person</t>
   </si>
   <si>
-    <t>CAAR Web Site</t>
-  </si>
-  <si>
     <t>NCST Conference</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t>Invitations</t>
-  </si>
-  <si>
-    <t>(Multiple Items)</t>
   </si>
   <si>
     <t>Git Hub</t>
@@ -523,7 +517,19 @@
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -548,27 +554,63 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cecilia Elpi" refreshedDate="41975.701138773147" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Roderick Hall" refreshedDate="41989.420626736108" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Work Database"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Project" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="21">
         <s v="NCST Conference"/>
-        <s v="CAAR Web Site"/>
         <s v="NDRS Conference 2016"/>
+        <s v="Git Hub"/>
         <s v="TRB 2015"/>
+        <s v="SAE 2015 BrainCloud video"/>
+        <s v="Tire Expo Booth"/>
+        <s v="Annual Report"/>
+        <s v="Misc"/>
+        <s v="UTC Web Site"/>
+        <s v="AVS One-Pagers"/>
+        <s v="Intranet"/>
+        <s v="VTTI Redesign"/>
+        <s v="Employee Directory"/>
+        <s v="VTTI Website"/>
+        <s v="NSTSCE Video"/>
+        <s v="LCD Panels"/>
+        <s v="ICMPA9 2015"/>
+        <s v="Motocycle Summit 2015"/>
+        <s v="MCOP Adaptive Lighting Project"/>
         <m/>
+        <s v="CAAR Web Site" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-Task" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="25">
         <s v="RFP Submission"/>
+        <s v="Conference Planning"/>
+        <s v="Set up &amp; Instruction"/>
+        <s v="Large Graphic Edit"/>
+        <s v="Medium graphic creation"/>
+        <s v="Animation"/>
+        <s v="Large graphic creation"/>
+        <s v="Small Graphic Edit"/>
+        <s v="Photography"/>
         <s v="Update"/>
-        <s v="Conference Planning"/>
-        <s v="Invitations"/>
+        <s v="Creation"/>
+        <s v="Dealing with Ensemble"/>
+        <s v="File Clean-up"/>
+        <s v="Printing"/>
+        <s v="Filming"/>
+        <s v="Communication"/>
+        <s v="Training"/>
+        <s v="Answering Questions"/>
+        <s v="Demo Site"/>
+        <s v="Hardware"/>
+        <s v="Editing Content"/>
+        <s v="Creating Content"/>
+        <s v="Writing Content"/>
         <m/>
+        <s v="Invitations" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
@@ -582,15 +624,15 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2014"/>
     </cacheField>
     <cacheField name="Hours" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="8"/>
     </cacheField>
     <cacheField name="Person" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
         <s v="Rodd"/>
-        <s v="April"/>
         <s v="Ceci"/>
         <s v="Marin"/>
         <s v="Justin"/>
+        <s v="April"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -604,7 +646,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -615,19 +657,11 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="2014"/>
-    <n v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -635,19 +669,11 @@
     <x v="0"/>
     <n v="2014"/>
     <n v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="2014"/>
-    <n v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="2"/>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
@@ -659,7 +685,7 @@
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -667,19 +693,243 @@
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1.25"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
     <n v="2014"/>
-    <n v="1"/>
-    <x v="2"/>
+    <n v="0.5"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1.75"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="6.5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="0.75"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="4.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="3.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="0.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="2014"/>
+    <n v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="2014"/>
+    <n v="0.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="0.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="23"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -689,32 +939,68 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="22">
+        <item m="1" x="20"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
+        <item x="3"/>
+        <item x="19"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="26">
+        <item x="1"/>
+        <item m="1" x="24"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="23"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item h="1" x="2"/>
         <item t="default"/>
@@ -724,10 +1010,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="7">
+        <item x="4"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
         <item x="0"/>
         <item x="5"/>
         <item t="default"/>
@@ -738,33 +1024,132 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="43">
     <i>
-      <x/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="11"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="12"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="12"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="3"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="17"/>
     </i>
     <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
+    <i>
+      <x v="15"/>
+    </i>
     <i r="1">
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
     </i>
     <i t="grand">
       <x/>
@@ -781,10 +1166,10 @@
     <dataField name="Sum of Hours" fld="4" baseField="0" baseItem="1566352" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -805,7 +1190,7 @@
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
-    <tableColumn id="4" name="Hours" dataDxfId="2"/>
+    <tableColumn id="4" name="Hours" dataDxfId="6"/>
     <tableColumn id="5" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1077,9 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1114,13 +1499,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>2014</v>
@@ -1129,18 +1514,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>2014</v>
@@ -1149,18 +1534,18 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>2014</v>
@@ -1169,18 +1554,18 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>2014</v>
@@ -1189,18 +1574,18 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2014</v>
@@ -1209,18 +1594,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1229,18 +1614,18 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -1249,18 +1634,18 @@
         <v>1.25</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -1269,18 +1654,18 @@
         <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>2014</v>
@@ -1289,18 +1674,18 @@
         <v>1.75</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>2014</v>
@@ -1309,18 +1694,18 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>2014</v>
@@ -1329,18 +1714,18 @@
         <v>6.5</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -1349,18 +1734,18 @@
         <v>1.25</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -1369,18 +1754,18 @@
         <v>0.75</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>2014</v>
@@ -1389,18 +1774,18 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>2014</v>
@@ -1409,18 +1794,18 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>2014</v>
@@ -1429,18 +1814,18 @@
         <v>4.5</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>2014</v>
@@ -1449,18 +1834,18 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>2014</v>
@@ -1469,18 +1854,18 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>2014</v>
@@ -1489,18 +1874,18 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>2014</v>
@@ -1509,18 +1894,18 @@
         <v>1.5</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>2014</v>
@@ -1529,18 +1914,18 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>2014</v>
@@ -1549,18 +1934,18 @@
         <v>3.5</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>2014</v>
@@ -1569,18 +1954,18 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>2014</v>
@@ -1589,18 +1974,18 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>2014</v>
@@ -1609,18 +1994,18 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>2014</v>
@@ -1629,18 +2014,18 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>2014</v>
@@ -1649,18 +2034,18 @@
         <v>1.5</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>2014</v>
@@ -1669,18 +2054,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>2014</v>
@@ -1689,18 +2074,18 @@
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>2014</v>
@@ -1709,18 +2094,18 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>2014</v>
@@ -1729,18 +2114,18 @@
         <v>0.5</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>2014</v>
@@ -1749,18 +2134,18 @@
         <v>0.5</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>2014</v>
@@ -1769,18 +2154,18 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>2014</v>
@@ -1789,18 +2174,18 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>2014</v>
@@ -1809,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1867,24 +2252,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,102 +2277,378 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
-        <v>17</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15"/>
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16"/>
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,212 +2680,212 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2254,208 +2915,208 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2480,10 +3141,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1">
         <v>2014</v>
@@ -2491,10 +3152,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -2502,10 +3163,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -2513,10 +3174,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -2524,10 +3185,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -2535,10 +3196,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -2546,7 +3207,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -2554,7 +3215,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2562,7 +3223,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2570,7 +3231,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2578,12 +3239,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20565" activeTab="1"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="20565"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
   <si>
     <t>Project</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Person</t>
   </si>
   <si>
+    <t>CAAR Web Site</t>
+  </si>
+  <si>
     <t>NCST Conference</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
   </si>
   <si>
     <t>Invitations</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
   <si>
     <t>Git Hub</t>
@@ -517,19 +523,7 @@
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -554,63 +548,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Roderick Hall" refreshedDate="41989.420626736108" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="36">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cecilia Elpi" refreshedDate="41975.701138773147" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Work Database"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Project" numFmtId="0">
-      <sharedItems containsBlank="1" count="21">
+      <sharedItems containsBlank="1" count="5">
         <s v="NCST Conference"/>
+        <s v="CAAR Web Site"/>
         <s v="NDRS Conference 2016"/>
-        <s v="Git Hub"/>
         <s v="TRB 2015"/>
-        <s v="SAE 2015 BrainCloud video"/>
-        <s v="Tire Expo Booth"/>
-        <s v="Annual Report"/>
-        <s v="Misc"/>
-        <s v="UTC Web Site"/>
-        <s v="AVS One-Pagers"/>
-        <s v="Intranet"/>
-        <s v="VTTI Redesign"/>
-        <s v="Employee Directory"/>
-        <s v="VTTI Website"/>
-        <s v="NSTSCE Video"/>
-        <s v="LCD Panels"/>
-        <s v="ICMPA9 2015"/>
-        <s v="Motocycle Summit 2015"/>
-        <s v="MCOP Adaptive Lighting Project"/>
         <m/>
-        <s v="CAAR Web Site" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-Task" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
+      <sharedItems containsBlank="1" count="5">
         <s v="RFP Submission"/>
+        <s v="Update"/>
         <s v="Conference Planning"/>
-        <s v="Set up &amp; Instruction"/>
-        <s v="Large Graphic Edit"/>
-        <s v="Medium graphic creation"/>
-        <s v="Animation"/>
-        <s v="Large graphic creation"/>
-        <s v="Small Graphic Edit"/>
-        <s v="Photography"/>
-        <s v="Update"/>
-        <s v="Creation"/>
-        <s v="Dealing with Ensemble"/>
-        <s v="File Clean-up"/>
-        <s v="Printing"/>
-        <s v="Filming"/>
-        <s v="Communication"/>
-        <s v="Training"/>
-        <s v="Answering Questions"/>
-        <s v="Demo Site"/>
-        <s v="Hardware"/>
-        <s v="Editing Content"/>
-        <s v="Creating Content"/>
-        <s v="Writing Content"/>
+        <s v="Invitations"/>
         <m/>
-        <s v="Invitations" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
@@ -624,15 +582,15 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2014"/>
     </cacheField>
     <cacheField name="Hours" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Person" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
         <s v="Rodd"/>
+        <s v="April"/>
         <s v="Ceci"/>
         <s v="Marin"/>
         <s v="Justin"/>
-        <s v="April"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -646,7 +604,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -657,11 +615,19 @@
   </r>
   <r>
     <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2014"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -669,11 +635,19 @@
     <x v="0"/>
     <n v="2014"/>
     <n v="4"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
+    <n v="2014"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
@@ -685,7 +659,7 @@
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -693,243 +667,19 @@
     <x v="0"/>
     <n v="2014"/>
     <n v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1.25"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
     <n v="2014"/>
-    <n v="0.5"/>
-    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1.75"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="6.5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1.25"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="0.75"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="4.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="13"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="3.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="15"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="15"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="16"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="17"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="0.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="18"/>
-    <x v="0"/>
-    <n v="2014"/>
-    <n v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="18"/>
-    <x v="0"/>
-    <n v="2014"/>
-    <n v="0.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="19"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="0.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="20"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="21"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="22"/>
-    <x v="1"/>
-    <n v="2014"/>
-    <n v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="23"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -939,68 +689,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item m="1" x="20"/>
+      <items count="6">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="19"/>
-        <item x="2"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="1"/>
-        <item m="1" x="24"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="23"/>
+      <items count="6">
         <item x="2"/>
         <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item h="1" x="2"/>
         <item t="default"/>
@@ -1010,10 +724,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="7">
+        <item x="1"/>
+        <item x="2"/>
         <item x="4"/>
-        <item x="1"/>
         <item x="3"/>
-        <item x="2"/>
         <item x="0"/>
         <item x="5"/>
         <item t="default"/>
@@ -1024,132 +738,33 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="10">
     <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="2"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -1166,10 +781,10 @@
     <dataField name="Sum of Hours" fld="4" baseField="0" baseItem="1566352" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -1190,7 +805,7 @@
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
-    <tableColumn id="4" name="Hours" dataDxfId="6"/>
+    <tableColumn id="4" name="Hours" dataDxfId="2"/>
     <tableColumn id="5" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1462,9 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1499,13 +1114,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>2014</v>
@@ -1514,18 +1129,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2014</v>
@@ -1534,18 +1149,18 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>2014</v>
@@ -1554,18 +1169,18 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2014</v>
@@ -1574,18 +1189,18 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2014</v>
@@ -1594,18 +1209,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1614,18 +1229,18 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -1634,18 +1249,18 @@
         <v>1.25</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -1654,18 +1269,18 @@
         <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>2014</v>
@@ -1674,18 +1289,18 @@
         <v>1.75</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>2014</v>
@@ -1694,18 +1309,18 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>2014</v>
@@ -1714,18 +1329,18 @@
         <v>6.5</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -1734,18 +1349,18 @@
         <v>1.25</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -1754,18 +1369,18 @@
         <v>0.75</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2014</v>
@@ -1774,18 +1389,18 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>2014</v>
@@ -1794,18 +1409,18 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>2014</v>
@@ -1814,18 +1429,18 @@
         <v>4.5</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>2014</v>
@@ -1834,18 +1449,18 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>2014</v>
@@ -1854,18 +1469,18 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>2014</v>
@@ -1874,18 +1489,18 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>2014</v>
@@ -1894,18 +1509,18 @@
         <v>1.5</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>2014</v>
@@ -1914,18 +1529,18 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>2014</v>
@@ -1934,18 +1549,18 @@
         <v>3.5</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>2014</v>
@@ -1954,18 +1569,18 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>2014</v>
@@ -1974,18 +1589,18 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>2014</v>
@@ -1994,18 +1609,18 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>2014</v>
@@ -2014,18 +1629,18 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>2014</v>
@@ -2034,18 +1649,18 @@
         <v>1.5</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>2014</v>
@@ -2054,18 +1669,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>2014</v>
@@ -2074,18 +1689,18 @@
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>2014</v>
@@ -2094,18 +1709,18 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>2014</v>
@@ -2114,18 +1729,18 @@
         <v>0.5</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>2014</v>
@@ -2134,18 +1749,18 @@
         <v>0.5</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>2014</v>
@@ -2154,18 +1769,18 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>2014</v>
@@ -2174,18 +1789,18 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36">
         <v>2014</v>
@@ -2194,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2252,24 +1867,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,378 +1892,102 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>1.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
-        <v>1.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
-        <v>4.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
-        <v>1.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
-        <v>6.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
-        <v>6.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4">
-        <v>1.25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1.25</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53"/>
+      <c r="B16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,212 +2019,212 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2915,208 +2254,208 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3141,10 +2480,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1">
         <v>2014</v>
@@ -3152,10 +2491,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -3163,10 +2502,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -3174,10 +2513,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -3185,10 +2524,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3196,10 +2535,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3207,7 +2546,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -3215,7 +2554,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -3223,7 +2562,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3231,7 +2570,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3239,12 +2578,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -18,9 +18,9 @@
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" refMode="R1C1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
   <si>
     <t>Project</t>
   </si>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1075,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,6 +1810,14 @@
       </c>
       <c r="F36" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\GitHub\Spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
@@ -1249,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1260,8 +1255,8 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1346,7 @@
         <v>2014</v>
       </c>
       <c r="E4" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1411,7 +1406,7 @@
         <v>2014</v>
       </c>
       <c r="E7" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1431,7 +1426,7 @@
         <v>2014</v>
       </c>
       <c r="E8" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -2546,7 +2541,7 @@
         <v>2014</v>
       </c>
       <c r="E63" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smackay\Desktop\VTTI Stuff\Github\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
   <si>
     <t>Project</t>
   </si>
@@ -862,7 +867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1244,7 +1249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1252,24 +1257,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1392,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1412,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1852,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2132,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2152,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -2192,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -2232,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2332,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -2372,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -2461,7 +2466,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2527,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2547,9 +2552,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2613,13 +2629,13 @@
       <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2635,7 +2651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2675,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2691,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2699,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2707,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2715,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2723,10 +2739,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -2747,14 +2763,14 @@
       <selection activeCell="A33" sqref="A33:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2773,12 +2789,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2786,7 +2802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2802,7 +2818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2810,7 +2826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -2818,12 +2834,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2831,7 +2847,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +2855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2847,12 +2863,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +2876,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2868,12 +2884,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2881,7 +2897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2889,7 +2905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2897,7 +2913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2905,7 +2921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2913,7 +2929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2921,7 +2937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2937,7 +2953,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2953,7 +2969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2961,7 +2977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2969,7 +2985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2977,7 +2993,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2985,7 +3001,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2993,7 +3009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -3001,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3009,22 +3025,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -3048,13 +3064,13 @@
       <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3062,7 +3078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3070,7 +3086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3078,7 +3094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3086,7 +3102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3094,12 +3110,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3107,17 +3123,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3125,7 +3141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3133,7 +3149,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3141,7 +3157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -3149,7 +3165,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3157,7 +3173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3165,7 +3181,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3189,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3181,7 +3197,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -3189,7 +3205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -3197,7 +3213,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -3205,7 +3221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3213,7 +3229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3221,7 +3237,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -3229,7 +3245,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3237,7 +3253,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -3245,7 +3261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>124</v>
       </c>
@@ -3253,7 +3269,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3261,7 +3277,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3269,7 +3285,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3277,7 +3293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -3285,7 +3301,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -3293,7 +3309,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3301,7 +3317,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3309,7 +3325,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -3317,7 +3333,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3325,7 +3341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -3333,7 +3349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -3341,7 +3357,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -3349,7 +3365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -3357,7 +3373,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
   </sheetData>
@@ -3379,9 +3395,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3392,7 +3408,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3403,7 +3419,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3414,7 +3430,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3425,7 +3441,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3436,7 +3452,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3447,7 +3463,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -3455,7 +3471,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -3463,7 +3479,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3487,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -3479,12 +3495,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>37</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smackay\Desktop\VTTI Stuff\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\GitHub\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="182">
   <si>
     <t>Project</t>
   </si>
@@ -574,13 +574,19 @@
   </si>
   <si>
     <t>Maintaining the hardware (mostly the computers for LCD panels), making sure they're updating and not displaying errors</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,8 +626,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +693,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -690,6 +709,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -867,7 +887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -976,19 +996,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G1048573" totalsRowShown="0">
-  <autoFilter ref="A1:G1048573"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H1048573" totalsRowShown="0">
+  <autoFilter ref="A1:H1048573"/>
   <sortState ref="A2:F50">
     <sortCondition ref="F1:F1048573"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
     <tableColumn id="7" name="Year"/>
     <tableColumn id="4" name="Hours" dataDxfId="2"/>
     <tableColumn id="5" name="Person"/>
-    <tableColumn id="3" name="Notes"/>
+    <tableColumn id="3" name="Column1"/>
+    <tableColumn id="8" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,24 +1278,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,10 +1317,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1357,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1377,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1397,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1437,7 +1466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1457,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1477,7 +1506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1497,7 +1526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1557,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1577,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1697,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1717,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1737,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -1797,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1817,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1837,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1877,7 +1906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1917,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1937,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -1957,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2017,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2037,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2077,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2097,7 +2126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2117,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2137,7 +2166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2177,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2217,7 +2246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -2237,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2277,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2297,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -2317,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -2357,7 +2386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -2377,7 +2406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2397,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2416,11 +2445,11 @@
       <c r="F57" t="s">
         <v>10</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -2439,11 +2468,11 @@
       <c r="F58" t="s">
         <v>10</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -2462,11 +2491,11 @@
       <c r="F59" t="s">
         <v>10</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -2485,11 +2514,11 @@
       <c r="F60" t="s">
         <v>12</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2508,11 +2537,11 @@
       <c r="F61" t="s">
         <v>12</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2532,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2552,12 +2581,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -2576,8 +2605,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2629,13 +2659,13 @@
       <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2651,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2675,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2683,7 +2713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2699,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2707,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2731,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2739,10 +2769,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -2763,14 +2793,14 @@
       <selection activeCell="A33" sqref="A33:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2781,7 +2811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2789,12 +2819,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2802,7 +2832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2810,7 +2840,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2826,7 +2856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -2834,12 +2864,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2847,7 +2877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2855,7 +2885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2863,12 +2893,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2876,7 +2906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2884,12 +2914,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2897,7 +2927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2905,7 +2935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2913,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2921,7 +2951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2929,7 +2959,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2937,7 +2967,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2945,7 +2975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2953,7 +2983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2961,7 +2991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2969,7 +2999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2977,7 +3007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2985,7 +3015,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2993,7 +3023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3001,7 +3031,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3009,7 +3039,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -3017,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3025,22 +3055,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -3064,13 +3094,13 @@
       <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3078,7 +3108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3086,7 +3116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3094,7 +3124,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3102,7 +3132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3110,12 +3140,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3123,17 +3153,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3141,7 +3171,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3157,7 +3187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -3165,7 +3195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3173,7 +3203,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3181,7 +3211,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3189,7 +3219,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3197,7 +3227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -3205,7 +3235,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -3213,7 +3243,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -3221,7 +3251,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3229,7 +3259,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3237,7 +3267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -3245,7 +3275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3253,7 +3283,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -3261,7 +3291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>124</v>
       </c>
@@ -3269,7 +3299,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3277,7 +3307,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3285,7 +3315,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3293,7 +3323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -3301,7 +3331,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -3309,7 +3339,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3317,7 +3347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3325,7 +3355,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -3333,7 +3363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3341,7 +3371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -3349,7 +3379,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -3357,7 +3387,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -3365,7 +3395,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -3373,7 +3403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
   </sheetData>
@@ -3395,9 +3425,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3408,7 +3438,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3449,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3460,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3441,7 +3471,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3482,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3463,7 +3493,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -3471,7 +3501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -3479,7 +3509,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -3487,7 +3517,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -3495,12 +3525,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtti.ad.vt.edu\data\Users\jfine\private\Desktop\GitHub\Spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
   <si>
     <t>Project</t>
   </si>
@@ -580,13 +575,52 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Org changes based on chart</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Small changes here and there.</t>
+  </si>
+  <si>
+    <t>Weeks of 12/5 and 12/19</t>
+  </si>
+  <si>
+    <t>Updated based on employee roster</t>
+  </si>
+  <si>
+    <t>Stories on 12/12 &amp; 12/17, participate page on 12/15</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Week of 12/5 and 12/12</t>
+  </si>
+  <si>
+    <t>Weeks of 11/7, 11/14 &amp; 11/28</t>
+  </si>
+  <si>
+    <t>Updating dates/times of demos</t>
+  </si>
+  <si>
+    <t>Updating for Patch Tuesday</t>
+  </si>
+  <si>
+    <t>Updating when I have time</t>
+  </si>
+  <si>
+    <t>Updating Thank You card templates with new branding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,15 +660,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,12 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -996,12 +1017,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H1048573" totalsRowShown="0">
-  <autoFilter ref="A1:H1048573"/>
-  <sortState ref="A2:F50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I1048574" totalsRowShown="0">
+  <autoFilter ref="A1:I1048574"/>
+  <sortState ref="A2:I1048573">
     <sortCondition ref="F1:F1048573"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" name="Project"/>
     <tableColumn id="2" name="Sub-Task"/>
     <tableColumn id="6" name="Month"/>
@@ -1010,6 +1031,7 @@
     <tableColumn id="5" name="Person"/>
     <tableColumn id="3" name="Column1"/>
     <tableColumn id="8" name="Date"/>
+    <tableColumn id="10" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1270,7 +1292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1278,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1316,7 @@
     <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,7 +1344,7 @@
       <c r="H1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1345,6 +1367,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="9">
+        <v>41976</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1365,6 +1390,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="9">
+        <v>41978</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1385,6 +1413,12 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1400,10 +1434,16 @@
         <v>2014</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,6 +1465,12 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="9">
+        <v>41983</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1445,6 +1491,12 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1465,6 +1517,12 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
+      <c r="H8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1485,6 +1543,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
+      <c r="H9" s="9">
+        <v>41982</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1505,6 +1566,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
+      <c r="H10" s="9">
+        <v>41984</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1525,6 +1589,12 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
+      <c r="H11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1545,6 +1615,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
+      <c r="H12" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1565,6 +1638,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
+      <c r="H13" s="9">
+        <v>41981</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1585,6 +1661,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1605,6 +1684,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
+      <c r="H15" s="9">
+        <v>41977</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1625,8 +1707,14 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1634,19 +1722,25 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>2014</v>
       </c>
       <c r="E17" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="9">
+        <v>41991</v>
+      </c>
+      <c r="I17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1665,113 +1759,137 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="9">
+        <v>41984</v>
+      </c>
+      <c r="I18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>2014</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="9">
+        <v>41985</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>2014</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>2014</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="9">
+        <v>41990</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>117</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D19">
-        <v>2014</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D22">
+        <v>2014</v>
+      </c>
+      <c r="E22" s="5">
         <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>2014</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>2014</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22">
-        <v>2014</v>
-      </c>
-      <c r="E22" s="5">
-        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>2014</v>
       </c>
       <c r="E23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1780,18 +1898,18 @@
         <v>2014</v>
       </c>
       <c r="E24" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1800,15 +1918,15 @@
         <v>2014</v>
       </c>
       <c r="E25" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>128</v>
@@ -1820,18 +1938,18 @@
         <v>2014</v>
       </c>
       <c r="E26" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1840,18 +1958,18 @@
         <v>2014</v>
       </c>
       <c r="E27" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -1860,18 +1978,18 @@
         <v>2014</v>
       </c>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -1880,18 +1998,18 @@
         <v>2014</v>
       </c>
       <c r="E29" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1900,18 +2018,18 @@
         <v>2014</v>
       </c>
       <c r="E30" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -1920,18 +2038,18 @@
         <v>2014</v>
       </c>
       <c r="E31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -1940,18 +2058,18 @@
         <v>2014</v>
       </c>
       <c r="E32" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -1960,18 +2078,18 @@
         <v>2014</v>
       </c>
       <c r="E33" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1986,15 +2104,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>2014</v>
@@ -2003,15 +2121,15 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -2020,18 +2138,18 @@
         <v>2014</v>
       </c>
       <c r="E36" s="5">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -2040,78 +2158,84 @@
         <v>2014</v>
       </c>
       <c r="E37" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>2014</v>
       </c>
       <c r="E38" s="5">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>2014</v>
       </c>
       <c r="E39" s="5">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <v>2014</v>
       </c>
       <c r="E40" s="5">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -2120,18 +2244,18 @@
         <v>2014</v>
       </c>
       <c r="E41" s="5">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -2140,18 +2264,18 @@
         <v>2014</v>
       </c>
       <c r="E42" s="5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -2160,18 +2284,18 @@
         <v>2014</v>
       </c>
       <c r="E43" s="5">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -2180,18 +2304,18 @@
         <v>2014</v>
       </c>
       <c r="E44" s="5">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -2200,18 +2324,18 @@
         <v>2014</v>
       </c>
       <c r="E45" s="5">
-        <v>2.75</v>
+        <v>10.5</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -2220,18 +2344,18 @@
         <v>2014</v>
       </c>
       <c r="E46" s="5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -2240,18 +2364,18 @@
         <v>2014</v>
       </c>
       <c r="E47" s="5">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -2260,7 +2384,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2268,13 +2392,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D49">
         <v>2014</v>
@@ -2283,35 +2407,35 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D50">
         <v>2014</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -2320,7 +2444,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2328,10 +2452,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -2340,7 +2464,7 @@
         <v>2014</v>
       </c>
       <c r="E52" s="5">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2348,10 +2472,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -2360,7 +2484,7 @@
         <v>2014</v>
       </c>
       <c r="E53" s="5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2368,10 +2492,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -2380,7 +2504,7 @@
         <v>2014</v>
       </c>
       <c r="E54" s="5">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2388,10 +2512,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -2400,7 +2524,7 @@
         <v>2014</v>
       </c>
       <c r="E55" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2408,10 +2532,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -2420,7 +2544,7 @@
         <v>2014</v>
       </c>
       <c r="E56" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2431,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -2440,82 +2564,73 @@
         <v>2014</v>
       </c>
       <c r="E57" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
       </c>
-      <c r="I57" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58">
         <v>2014</v>
       </c>
       <c r="E58" s="5">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
       </c>
-      <c r="I58" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D59">
         <v>2014</v>
       </c>
       <c r="E59" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
       </c>
-      <c r="I59" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60">
         <v>2014</v>
       </c>
       <c r="E60" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2535,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
         <v>173</v>
@@ -2543,63 +2658,86 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62">
         <v>2014</v>
       </c>
       <c r="E62" s="5">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D63">
         <v>2014</v>
       </c>
       <c r="E63" s="5">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>2014</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>143</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048573">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048574">
       <formula1>0.25</formula1>
       <formula2>16</formula2>
     </dataValidation>
@@ -2616,31 +2754,31 @@
           <x14:formula1>
             <xm:f>Variables!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048573</xm:sqref>
+          <xm:sqref>F2:F1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048573</xm:sqref>
+          <xm:sqref>C1:C1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Variables!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048573</xm:sqref>
+          <xm:sqref>D1:D1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Project List'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048573</xm:sqref>
+          <xm:sqref>A1:A1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Sub-Tasks'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048573</xm:sqref>
+          <xm:sqref>B2:B1048574</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Project Documentation.xlsx
+++ b/Project Documentation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smackay\Desktop\Github\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232"/>
   </bookViews>
   <sheets>
     <sheet name="Work Database" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="196">
   <si>
     <t>Project</t>
   </si>
@@ -614,6 +619,9 @@
   </si>
   <si>
     <t>Updating Thank You card templates with new branding</t>
+  </si>
+  <si>
+    <t>All told for 2 stories (pavement, Charlie) with interviews, writing, and ensemble, etc.</t>
   </si>
 </sst>
 </file>
@@ -908,7 +916,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1292,7 +1300,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1300,26 +1308,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>41976</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1498,7 +1506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1570,7 +1578,7 @@
         <v>41984</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>41981</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>41977</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1792,7 +1800,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1844,7 +1852,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1984,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2064,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2124,7 +2132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2144,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -2164,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2310,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2350,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -2430,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>169</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2699,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -2719,12 +2727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -2733,6 +2741,29 @@
       </c>
       <c r="C66" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>2014</v>
+      </c>
+      <c r="E67" s="5">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2797,13 +2828,13 @@
       <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2811,7 +2842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2819,7 +2850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +2858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2843,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +2882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2875,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2899,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2907,10 +2938,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -2931,14 +2962,14 @@
       <selection activeCell="A33" sqref="A33:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +2980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2957,12 +2988,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2970,7 +3001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2978,7 +3009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2986,7 +3017,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2994,7 +3025,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -3002,12 +3033,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3015,7 +3046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3023,7 +3054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -3031,12 +3062,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3044,7 +3075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -3052,12 +3083,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3073,7 +3104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -3081,7 +3112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3089,7 +3120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -3097,7 +3128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -3105,7 +3136,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3113,7 +3144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -3121,7 +3152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -3129,7 +3160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -3137,7 +3168,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -3145,7 +3176,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -3153,7 +3184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -3161,7 +3192,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3169,7 +3200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3177,7 +3208,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -3185,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3193,22 +3224,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -3232,13 +3263,13 @@
       <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3246,7 +3277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3254,7 +3285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3262,7 +3293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3270,7 +3301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3278,12 +3309,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3291,17 +3322,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3309,7 +3340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3317,7 +3348,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3325,7 +3356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -3333,7 +3364,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3341,7 +3372,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3349,7 +3380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3357,7 +3388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3365,7 +3396,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -3373,7 +3404,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -3381,7 +3412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -3389,7 +3420,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3397,7 +3428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3405,7 +3436,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -3413,7 +3444,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3421,7 +3452,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -3429,7 +3460,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>124</v>
       </c>
@@ -3437,7 +3468,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3445,7 +3476,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3453,7 +3484,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3461,7 +3492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -3469,7 +3500,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -3477,7 +3508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3485,7 +3516,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3493,7 +3524,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -3501,7 +3532,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3509,7 +3540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -3517,7 +3548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -3525,7 +3556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -3533,7 +3564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -3541,7 +3572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
   </sheetData>
@@ -3563,9 +3594,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3576,7 +3607,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +3618,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3629,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3609,7 +3640,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3620,7 +3651,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3631,7 +3662,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -3639,7 +3670,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -3647,7 +3678,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -3655,7 +3686,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -3663,12 +3694,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>37</v>
       </c>
